--- a/biology/Biochimie/Bactériocine/Bactériocine.xlsx
+++ b/biology/Biochimie/Bactériocine/Bactériocine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9riocine</t>
+          <t>Bactériocine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactériocines sont une famille de peptides ou protéines synthétisés naturellement par certaines bactéries.
 Une bactériocine consiste généralement en un composé protéique de 20 à 60 acides aminés.  
@@ -497,7 +509,7 @@
 Par exemple, l'ADN libéré va permettre un échange de gènes par mécanisme de transformation.
 La première bactériocine a été découverte en 1925. Appelée la « Colicine », elle fut identifiée chez Escherichia coli.
 La deuxième fut découverte en 1927. Nommée « Nisine » et produite par Lactococcus lactis, elle est utilisée de façon courante comme additif alimentaire (E234) pour la conservation de certains aliments, dont celle de la viande. Elle fut la première bactériocine pouvant légalement être utilisée comme agent de conservation.
-La natamycine est une autre bactériocine utilisée dans l'industrie agro-alimentaire sous le numéro E235. Elle peut uniquement être utilisée pour le traitement en surface des fromages à pâte dure, semi-dure et semi-molle[1]. La concentration maximale est de 1 mg/dm2 de surface du produit.
+La natamycine est une autre bactériocine utilisée dans l'industrie agro-alimentaire sous le numéro E235. Elle peut uniquement être utilisée pour le traitement en surface des fromages à pâte dure, semi-dure et semi-molle. La concentration maximale est de 1 mg/dm2 de surface du produit.
 Par ailleurs, les bactériocines sont aussi naturellement présentes dans un certain nombre d'aliments tel que le saucisson.
 </t>
         </is>
